--- a/backup_pc_yinhang.xlsx
+++ b/backup_pc_yinhang.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665F8A86-A838-4678-A5C6-8FD3046999B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA96065-7C6B-4550-81F0-536BD126C558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8385" yWindow="1455" windowWidth="17475" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录说明" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>不容易下载的视频，AV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project2019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +481,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,6 +639,9 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>25569</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/backup_pc_yinhang.xlsx
+++ b/backup_pc_yinhang.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA96065-7C6B-4550-81F0-536BD126C558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E04C14C-4D30-4A87-84BD-EA5A5265C711}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="1455" windowWidth="17475" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="630" windowWidth="22275" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录说明" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>不容易下载的视频，AV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>project2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA插件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF94FBC4-41C7-4ACF-AD28-3E73DE77B865}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,6 +646,14 @@
       </c>
       <c r="B14" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>25569</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/backup_pc_yinhang.xlsx
+++ b/backup_pc_yinhang.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E04C14C-4D30-4A87-84BD-EA5A5265C711}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD5D3BE-9C63-4353-BEAB-36BD69739B4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="630" windowWidth="22275" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录说明" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>不容易下载的视频，AV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>VA插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC-VS2017组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF94FBC4-41C7-4ACF-AD28-3E73DE77B865}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,6 +658,14 @@
       </c>
       <c r="B15" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>25569</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/backup_pc_yinhang.xlsx
+++ b/backup_pc_yinhang.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD5D3BE-9C63-4353-BEAB-36BD69739B4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A1994E-5B6B-4780-8FAD-9977BB327468}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33645" yWindow="1965" windowWidth="20430" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录说明" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>不容易下载的视频，AV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>MFC-VS2017组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装xmanager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加激活码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF94FBC4-41C7-4ACF-AD28-3E73DE77B865}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,6 +674,17 @@
       </c>
       <c r="B16" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>25569</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/backup_pc_yinhang.xlsx
+++ b/backup_pc_yinhang.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A1994E-5B6B-4780-8FAD-9977BB327468}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B98B16E-69FD-40E1-913B-98605CAE3215}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33645" yWindow="1965" windowWidth="20430" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录说明" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>不容易下载的视频，AV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能从网上随时下的软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +140,18 @@
   </si>
   <si>
     <t>添加激活码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万不要和2019混装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查VISIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,11 +202,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -494,16 +501,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF94FBC4-41C7-4ACF-AD28-3E73DE77B865}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="49.25" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
@@ -511,19 +518,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -531,7 +538,7 @@
         <v>43586</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -539,10 +546,10 @@
         <v>43586</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -550,10 +557,10 @@
         <v>43586</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -561,10 +568,10 @@
         <v>43586</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -572,10 +579,10 @@
         <v>43586</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -583,7 +590,7 @@
         <v>43586</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -591,10 +598,10 @@
         <v>43586</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -602,7 +609,7 @@
         <v>43586</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -610,16 +617,16 @@
         <v>43586</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -627,7 +634,7 @@
         <v>43586</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -635,15 +642,15 @@
         <v>43586</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>25569</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>430.86</v>
@@ -653,41 +660,45 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>25569</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>25569</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>25569</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>25569</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:A18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -713,17 +724,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backup_pc_yinhang.xlsx
+++ b/backup_pc_yinhang.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B98B16E-69FD-40E1-913B-98605CAE3215}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4902E72-9C26-46E2-BDA5-DA5A52B6F172}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="目录说明" sheetId="2" r:id="rId1"/>
-    <sheet name="说明" sheetId="1" r:id="rId2"/>
+    <sheet name="V3" sheetId="3" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId2"/>
+    <sheet name="说明" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +153,53 @@
   </si>
   <si>
     <t>检查VISIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置下载目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Users\gdnh_\Downloads</t>
+  </si>
+  <si>
+    <t>QQ五笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notepad++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypersnap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winrar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmind zen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d:\typora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名NINJA59K-PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1903大更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA2270插件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +220,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -202,19 +243,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -500,11 +555,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF94FBC4-41C7-4ACF-AD28-3E73DE77B865}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E144B42-79D5-4109-B92D-305B2026FFFF}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>43586</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>43627</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>430.86</v>
+      </c>
+      <c r="D13">
+        <v>430.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF94FBC4-41C7-4ACF-AD28-3E73DE77B865}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,7 +845,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>43586</v>
       </c>
       <c r="B2" t="s">
@@ -542,9 +853,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>43586</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -553,9 +862,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>43586</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -564,9 +871,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>43586</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -575,9 +880,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>43586</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -586,118 +889,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>43586</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>43586</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>43586</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>43586</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>43586</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>43586</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>430.86</v>
-      </c>
-      <c r="D13">
-        <v>430.64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
@@ -708,7 +907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
